--- a/opm_hero_property/heroes/46.xlsx
+++ b/opm_hero_property/heroes/46.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11034</v>
       </c>
       <c r="D4" t="n">
-        <v>11034</v>
+        <v>11697</v>
       </c>
       <c r="E4" t="n">
         <v>272</v>
@@ -1304,7 +1305,7 @@
         <v>12206</v>
       </c>
       <c r="D5" t="n">
-        <v>12206</v>
+        <v>13621</v>
       </c>
       <c r="E5" t="n">
         <v>409</v>
@@ -1411,7 +1412,7 @@
         <v>13584</v>
       </c>
       <c r="D6" t="n">
-        <v>13584</v>
+        <v>15884</v>
       </c>
       <c r="E6" t="n">
         <v>560</v>
@@ -1518,7 +1519,7 @@
         <v>15169</v>
       </c>
       <c r="D7" t="n">
-        <v>15169</v>
+        <v>20609</v>
       </c>
       <c r="E7" t="n">
         <v>1049</v>
@@ -1625,7 +1626,7 @@
         <v>16962</v>
       </c>
       <c r="D8" t="n">
-        <v>16962</v>
+        <v>27144</v>
       </c>
       <c r="E8" t="n">
         <v>1555</v>
@@ -1732,7 +1733,7 @@
         <v>19029</v>
       </c>
       <c r="D9" t="n">
-        <v>19029</v>
+        <v>35942</v>
       </c>
       <c r="E9" t="n">
         <v>2052</v>
@@ -1839,7 +1840,7 @@
         <v>20132</v>
       </c>
       <c r="D10" t="n">
-        <v>20132</v>
+        <v>43270</v>
       </c>
       <c r="E10" t="n">
         <v>2425</v>
@@ -1946,7 +1947,7 @@
         <v>21442</v>
       </c>
       <c r="D11" t="n">
-        <v>21442</v>
+        <v>52266</v>
       </c>
       <c r="E11" t="n">
         <v>2830</v>
@@ -2053,7 +2054,7 @@
         <v>24199</v>
       </c>
       <c r="D12" t="n">
-        <v>24199</v>
+        <v>68278</v>
       </c>
       <c r="E12" t="n">
         <v>3482</v>
@@ -2160,7 +2161,7 @@
         <v>24750</v>
       </c>
       <c r="D13" t="n">
-        <v>24750</v>
+        <v>70541</v>
       </c>
       <c r="E13" t="n">
         <v>3918</v>
@@ -2267,7 +2268,7 @@
         <v>25302</v>
       </c>
       <c r="D14" t="n">
-        <v>25302</v>
+        <v>72805</v>
       </c>
       <c r="E14" t="n">
         <v>4353</v>
@@ -2374,7 +2375,7 @@
         <v>25853</v>
       </c>
       <c r="D15" t="n">
-        <v>25853</v>
+        <v>75068</v>
       </c>
       <c r="E15" t="n">
         <v>4788</v>
@@ -2481,7 +2482,7 @@
         <v>26404</v>
       </c>
       <c r="D16" t="n">
-        <v>26404</v>
+        <v>77331</v>
       </c>
       <c r="E16" t="n">
         <v>5224</v>
@@ -2588,7 +2589,7 @@
         <v>26956</v>
       </c>
       <c r="D17" t="n">
-        <v>26956</v>
+        <v>79594</v>
       </c>
       <c r="E17" t="n">
         <v>5659</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29189.5765296</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5460.854505599999</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2010.7324</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2400</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>46</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41235.19184</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7743.083319199999</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3107.328</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2400</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>46</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>75523.69039839999</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13400.8078</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6738.059999999999</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2400</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>46</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>75523.69039839999</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13400.8078</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6738.059999999999</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2480</v>
+      </c>
+      <c r="X5" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>46</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>70426.0722064</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12089.9938</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6738.059999999999</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>46</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>279964.2617904</v>
+      </c>
+      <c r="U7" t="n">
+        <v>46085.679344</v>
+      </c>
+      <c r="V7" t="n">
+        <v>29533.7746</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3440</v>
+      </c>
+      <c r="X7" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>46</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>256433.1306384</v>
+      </c>
+      <c r="U8" t="n">
+        <v>40587.380624</v>
+      </c>
+      <c r="V8" t="n">
+        <v>29533.7746</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X8" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>46</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>264276.8410224</v>
+      </c>
+      <c r="U9" t="n">
+        <v>42420.146864</v>
+      </c>
+      <c r="V9" t="n">
+        <v>29533.7746</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2840</v>
+      </c>
+      <c r="X9" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>46</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>272120.5514064</v>
+      </c>
+      <c r="U10" t="n">
+        <v>44252.913104</v>
+      </c>
+      <c r="V10" t="n">
+        <v>29533.7746</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3140</v>
+      </c>
+      <c r="X10" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>46</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>279964.2617904</v>
+      </c>
+      <c r="U11" t="n">
+        <v>46085.679344</v>
+      </c>
+      <c r="V11" t="n">
+        <v>29533.7746</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3440</v>
+      </c>
+      <c r="X11" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>46</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>279964.2617904</v>
+      </c>
+      <c r="U12" t="n">
+        <v>46085.679344</v>
+      </c>
+      <c r="V12" t="n">
+        <v>29533.7746</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3360</v>
+      </c>
+      <c r="X12" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3720</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>46</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>417857.6245112</v>
+      </c>
+      <c r="U13" t="n">
+        <v>68320.1275208</v>
+      </c>
+      <c r="V13" t="n">
+        <v>50169.839</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3520</v>
+      </c>
+      <c r="X13" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3840</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>46</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>417857.6245112</v>
+      </c>
+      <c r="U14" t="n">
+        <v>68320.1275208</v>
+      </c>
+      <c r="V14" t="n">
+        <v>50169.839</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3600</v>
+      </c>
+      <c r="X14" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>46</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1019289.053534</v>
+      </c>
+      <c r="U15" t="n">
+        <v>165470.4157888</v>
+      </c>
+      <c r="V15" t="n">
+        <v>142782.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3920</v>
+      </c>
+      <c r="X15" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>46</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5311635.665159199</v>
+      </c>
+      <c r="U16" t="n">
+        <v>861409.2600888</v>
+      </c>
+      <c r="V16" t="n">
+        <v>713387.1038</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4560</v>
+      </c>
+      <c r="X16" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>46</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8687938.966283601</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1407722.6254152</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1160479.4616</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5600</v>
+      </c>
+      <c r="X17" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5400</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>46</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>239457.6050596</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41396.3889256</v>
+      </c>
+      <c r="V18" t="n">
+        <v>26916.516</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>46</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>318327.305608</v>
+      </c>
+      <c r="U19" t="n">
+        <v>53828.2541208</v>
+      </c>
+      <c r="V19" t="n">
+        <v>36429.6668</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2760</v>
+      </c>
+      <c r="X19" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3720</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>46</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>408065.1554096</v>
+      </c>
+      <c r="U20" t="n">
+        <v>67251.0724534</v>
+      </c>
+      <c r="V20" t="n">
+        <v>49930.26620000001</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3140</v>
+      </c>
+      <c r="X20" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>46</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>465506.4344924</v>
+      </c>
+      <c r="U21" t="n">
+        <v>79056.8501784</v>
+      </c>
+      <c r="V21" t="n">
+        <v>57595.8855</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3600</v>
+      </c>
+      <c r="X21" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>46</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>537550.0106</v>
+      </c>
+      <c r="U22" t="n">
+        <v>95111.1700656</v>
+      </c>
+      <c r="V22" t="n">
+        <v>70854.8579</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3920</v>
+      </c>
+      <c r="X22" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>46</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>684210.7584484</v>
+      </c>
+      <c r="U23" t="n">
+        <v>128026.8074456</v>
+      </c>
+      <c r="V23" t="n">
+        <v>97704.56140000001</v>
+      </c>
+      <c r="W23" t="n">
+        <v>4560</v>
+      </c>
+      <c r="X23" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/46.xlsx
+++ b/opm_hero_property/heroes/46.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29189.5765296</v>
+        <v>5446512.665159199</v>
       </c>
       <c r="U2" t="n">
-        <v>5460.854505599999</v>
+        <v>885137.2600888</v>
       </c>
       <c r="V2" t="n">
-        <v>2010.7324</v>
+        <v>735227.1038</v>
       </c>
       <c r="W2" t="n">
-        <v>2400</v>
+        <v>4560</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AA2" t="n">
-        <v>2000</v>
+        <v>4620</v>
       </c>
       <c r="AB2" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11886045.94917</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1308940.00745192</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2007622</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15797880.60662192</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41235.19184</v>
+        <v>684210.7584484</v>
       </c>
       <c r="U3" t="n">
-        <v>7743.083319199999</v>
+        <v>128026.8074456</v>
       </c>
       <c r="V3" t="n">
-        <v>3107.328</v>
+        <v>97704.56140000001</v>
       </c>
       <c r="W3" t="n">
-        <v>2400</v>
+        <v>4560</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AA3" t="n">
-        <v>2000</v>
+        <v>4620</v>
       </c>
       <c r="AB3" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1347520.35739</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>148726.60048304</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>466485.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2145761.95787304</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>75523.69039839999</v>
+        <v>7760.4204</v>
       </c>
       <c r="U4" t="n">
-        <v>13400.8078</v>
+        <v>1573.9296</v>
       </c>
       <c r="V4" t="n">
-        <v>6738.059999999999</v>
+        <v>602.7324</v>
       </c>
       <c r="W4" t="n">
-        <v>2400</v>
+        <v>562</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19349.59594</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4549.950000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23899.54594</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>75523.69039839999</v>
+        <v>20919.16</v>
       </c>
       <c r="U5" t="n">
-        <v>13400.8078</v>
+        <v>3928.2372</v>
       </c>
       <c r="V5" t="n">
-        <v>6738.059999999999</v>
+        <v>1866.328</v>
       </c>
       <c r="W5" t="n">
-        <v>2480</v>
+        <v>673</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="AA5" t="n">
-        <v>2060</v>
+        <v>800</v>
       </c>
       <c r="AB5" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>49649.48268</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11988.35</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>61637.83267999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>70426.0722064</v>
+        <v>59256.1516</v>
       </c>
       <c r="U6" t="n">
-        <v>12089.9938</v>
+        <v>10106.3</v>
       </c>
       <c r="V6" t="n">
-        <v>6738.059999999999</v>
+        <v>5987.059999999999</v>
       </c>
       <c r="W6" t="n">
-        <v>1580</v>
+        <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA6" t="n">
-        <v>2060</v>
+        <v>1500</v>
       </c>
       <c r="AB6" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>119974.6166</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9406.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>168387.7166</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>279964.2617904</v>
+        <v>59256.1516</v>
       </c>
       <c r="U7" t="n">
-        <v>46085.679344</v>
+        <v>10106.3</v>
       </c>
       <c r="V7" t="n">
-        <v>29533.7746</v>
+        <v>5987.059999999999</v>
       </c>
       <c r="W7" t="n">
-        <v>3440</v>
+        <v>1080</v>
       </c>
       <c r="X7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA7" t="n">
-        <v>3780</v>
+        <v>1560</v>
       </c>
       <c r="AB7" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>119974.6166</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9589.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>168570.7166</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>256433.1306384</v>
+        <v>59426.0722064</v>
       </c>
       <c r="U8" t="n">
-        <v>40587.380624</v>
+        <v>10149.9938</v>
       </c>
       <c r="V8" t="n">
-        <v>29533.7746</v>
+        <v>5987.059999999999</v>
       </c>
       <c r="W8" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA8" t="n">
-        <v>3780</v>
+        <v>1560</v>
       </c>
       <c r="AB8" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>119974.6166</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>471.4078264</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9589.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>169042.1244264</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,24 +7776,24 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>264276.8410224</v>
+        <v>254859.7596</v>
       </c>
       <c r="U9" t="n">
-        <v>42420.146864</v>
+        <v>40561.104</v>
       </c>
       <c r="V9" t="n">
-        <v>29533.7746</v>
+        <v>29660.7746</v>
       </c>
       <c r="W9" t="n">
-        <v>2840</v>
+        <v>2540</v>
       </c>
       <c r="X9" t="n">
         <v>720</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>549078.23115</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>717598.83115</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,24 +7911,24 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>272120.5514064</v>
+        <v>255644.1306384</v>
       </c>
       <c r="U10" t="n">
-        <v>44252.913104</v>
+        <v>40744.380624</v>
       </c>
       <c r="V10" t="n">
-        <v>29533.7746</v>
+        <v>29660.7746</v>
       </c>
       <c r="W10" t="n">
-        <v>3140</v>
+        <v>2540</v>
       </c>
       <c r="X10" t="n">
         <v>720</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>549078.23115</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2048.979744</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>719647.810894</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,24 +8046,24 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>279964.2617904</v>
+        <v>263487.8410224</v>
       </c>
       <c r="U11" t="n">
-        <v>46085.679344</v>
+        <v>42577.146864</v>
       </c>
       <c r="V11" t="n">
-        <v>29533.7746</v>
+        <v>29660.7746</v>
       </c>
       <c r="W11" t="n">
-        <v>3440</v>
+        <v>2840</v>
       </c>
       <c r="X11" t="n">
         <v>720</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>549078.23115</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>23033.777184</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>740632.608334</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,24 +8181,24 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>279964.2617904</v>
+        <v>271331.5514064</v>
       </c>
       <c r="U12" t="n">
-        <v>46085.679344</v>
+        <v>44409.913104</v>
       </c>
       <c r="V12" t="n">
-        <v>29533.7746</v>
+        <v>29660.7746</v>
       </c>
       <c r="W12" t="n">
-        <v>3360</v>
+        <v>3140</v>
       </c>
       <c r="X12" t="n">
         <v>720</v>
@@ -7930,7 +8210,7 @@
         <v>2160</v>
       </c>
       <c r="AA12" t="n">
-        <v>3720</v>
+        <v>3780</v>
       </c>
       <c r="AB12" t="n">
         <v>1080</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>549078.23115</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>44018.574624</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>761617.405774</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,20 +8320,20 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>417857.6245112</v>
+        <v>279175.2617904</v>
       </c>
       <c r="U13" t="n">
-        <v>68320.1275208</v>
+        <v>46242.679344</v>
       </c>
       <c r="V13" t="n">
-        <v>50169.839</v>
+        <v>29660.7746</v>
       </c>
       <c r="W13" t="n">
-        <v>3520</v>
+        <v>3440</v>
       </c>
       <c r="X13" t="n">
         <v>720</v>
@@ -8041,7 +8345,7 @@
         <v>2160</v>
       </c>
       <c r="AA13" t="n">
-        <v>3840</v>
+        <v>3780</v>
       </c>
       <c r="AB13" t="n">
         <v>1080</v>
@@ -8050,25 +8354,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>549078.23115</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>65003.372064</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>782602.203214</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,20 +8455,20 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>417857.6245112</v>
+        <v>279175.2617904</v>
       </c>
       <c r="U14" t="n">
-        <v>68320.1275208</v>
+        <v>46242.679344</v>
       </c>
       <c r="V14" t="n">
-        <v>50169.839</v>
+        <v>29660.7746</v>
       </c>
       <c r="W14" t="n">
-        <v>3600</v>
+        <v>3360</v>
       </c>
       <c r="X14" t="n">
         <v>720</v>
@@ -8152,7 +8480,7 @@
         <v>2160</v>
       </c>
       <c r="AA14" t="n">
-        <v>3900</v>
+        <v>3720</v>
       </c>
       <c r="AB14" t="n">
         <v>1080</v>
@@ -8161,25 +8489,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>549078.23115</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>65003.372064</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38947.6</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>782419.203214</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,20 +8590,20 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1019289.053534</v>
+        <v>420357.6245112</v>
       </c>
       <c r="U15" t="n">
-        <v>165470.4157888</v>
+        <v>69128.1275208</v>
       </c>
       <c r="V15" t="n">
-        <v>142782.1</v>
+        <v>50943.839</v>
       </c>
       <c r="W15" t="n">
-        <v>3920</v>
+        <v>3520</v>
       </c>
       <c r="X15" t="n">
         <v>720</v>
@@ -8263,7 +8615,7 @@
         <v>2160</v>
       </c>
       <c r="AA15" t="n">
-        <v>4140</v>
+        <v>3840</v>
       </c>
       <c r="AB15" t="n">
         <v>1080</v>
@@ -8272,25 +8624,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>848403.9373699999</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>96649.69128472</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111712</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1204254.77865472</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,20 +8725,20 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5311635.665159199</v>
+        <v>420357.6245112</v>
       </c>
       <c r="U16" t="n">
-        <v>861409.2600888</v>
+        <v>69128.1275208</v>
       </c>
       <c r="V16" t="n">
-        <v>713387.1038</v>
+        <v>50943.839</v>
       </c>
       <c r="W16" t="n">
-        <v>4560</v>
+        <v>3600</v>
       </c>
       <c r="X16" t="n">
         <v>720</v>
@@ -8374,7 +8750,7 @@
         <v>2160</v>
       </c>
       <c r="AA16" t="n">
-        <v>4620</v>
+        <v>3900</v>
       </c>
       <c r="AB16" t="n">
         <v>1080</v>
@@ -8383,25 +8759,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>848403.9373699999</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>96649.69128472</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111895</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1204437.77865472</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,20 +8860,20 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8687938.966283601</v>
+        <v>1056784.053534</v>
       </c>
       <c r="U17" t="n">
-        <v>1407722.6254152</v>
+        <v>172327.4157888</v>
       </c>
       <c r="V17" t="n">
-        <v>1160479.4616</v>
+        <v>149415.1</v>
       </c>
       <c r="W17" t="n">
-        <v>5600</v>
+        <v>3920</v>
       </c>
       <c r="X17" t="n">
         <v>720</v>
@@ -8485,7 +8885,7 @@
         <v>2160</v>
       </c>
       <c r="AA17" t="n">
-        <v>5400</v>
+        <v>4140</v>
       </c>
       <c r="AB17" t="n">
         <v>1080</v>
@@ -8494,58 +8894,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1951841.12002</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>212381.42745672</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685692</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3119881.04747672</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>239457.6050596</v>
+        <v>5446512.665159199</v>
       </c>
       <c r="U18" t="n">
-        <v>41396.3889256</v>
+        <v>885137.2600888</v>
       </c>
       <c r="V18" t="n">
-        <v>26916.516</v>
+        <v>735227.1038</v>
       </c>
       <c r="W18" t="n">
-        <v>1580</v>
+        <v>4560</v>
       </c>
       <c r="X18" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AA18" t="n">
-        <v>2060</v>
+        <v>4620</v>
       </c>
       <c r="AB18" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11886045.94917</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1308940.00745192</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2007622</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15797880.60662192</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,34 +9116,34 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>318327.305608</v>
+        <v>8997656.966283601</v>
       </c>
       <c r="U19" t="n">
-        <v>53828.2541208</v>
+        <v>1461755.6254152</v>
       </c>
       <c r="V19" t="n">
-        <v>36429.6668</v>
+        <v>1209711.4616</v>
       </c>
       <c r="W19" t="n">
-        <v>2760</v>
+        <v>5600</v>
       </c>
       <c r="X19" t="n">
         <v>720</v>
@@ -8707,7 +9155,7 @@
         <v>2160</v>
       </c>
       <c r="AA19" t="n">
-        <v>3720</v>
+        <v>5400</v>
       </c>
       <c r="AB19" t="n">
         <v>1080</v>
@@ -8716,25 +9164,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>19284376.22818</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2127466.70766848</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3470670.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26058355.68584848</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>408065.1554096</v>
+        <v>228457.6050596</v>
       </c>
       <c r="U20" t="n">
-        <v>67251.0724534</v>
+        <v>39456.3889256</v>
       </c>
       <c r="V20" t="n">
-        <v>49930.26620000001</v>
+        <v>26165.516</v>
       </c>
       <c r="W20" t="n">
-        <v>3140</v>
+        <v>1080</v>
       </c>
       <c r="X20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA20" t="n">
-        <v>3780</v>
+        <v>1560</v>
       </c>
       <c r="AB20" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>573564.53134</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2223.67430624</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32982.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>656313.9056462401</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>465506.4344924</v>
+        <v>295227.305608</v>
       </c>
       <c r="U21" t="n">
-        <v>79056.8501784</v>
+        <v>49754.2541208</v>
       </c>
       <c r="V21" t="n">
-        <v>57595.8855</v>
+        <v>34852.8668</v>
       </c>
       <c r="W21" t="n">
-        <v>3600</v>
+        <v>1710</v>
       </c>
       <c r="X21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2160</v>
+        <v>1350</v>
       </c>
       <c r="AA21" t="n">
-        <v>3900</v>
+        <v>2370</v>
       </c>
       <c r="AB21" t="n">
-        <v>1080</v>
+        <v>675</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>683791.9178200001</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49269</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>28788.27532152</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65965.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>846842.8931415201</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,34 +9521,34 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>537550.0106</v>
+        <v>408065.1554096</v>
       </c>
       <c r="U22" t="n">
-        <v>95111.1700656</v>
+        <v>67251.0724534</v>
       </c>
       <c r="V22" t="n">
-        <v>70854.8579</v>
+        <v>49930.26620000001</v>
       </c>
       <c r="W22" t="n">
-        <v>3920</v>
+        <v>3140</v>
       </c>
       <c r="X22" t="n">
         <v>720</v>
@@ -9040,7 +9560,7 @@
         <v>2160</v>
       </c>
       <c r="AA22" t="n">
-        <v>4140</v>
+        <v>3780</v>
       </c>
       <c r="AB22" t="n">
         <v>1080</v>
@@ -9049,25 +9569,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>872087.5872599999</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>67294.94872806</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95470.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1172504.58598806</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,20 +9670,20 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>684210.7584484</v>
+        <v>465506.4344924</v>
       </c>
       <c r="U23" t="n">
-        <v>128026.8074456</v>
+        <v>79056.8501784</v>
       </c>
       <c r="V23" t="n">
-        <v>97704.56140000001</v>
+        <v>57595.8855</v>
       </c>
       <c r="W23" t="n">
-        <v>4560</v>
+        <v>3600</v>
       </c>
       <c r="X23" t="n">
         <v>720</v>
@@ -9151,7 +9695,7 @@
         <v>2160</v>
       </c>
       <c r="AA23" t="n">
-        <v>4620</v>
+        <v>3900</v>
       </c>
       <c r="AB23" t="n">
         <v>1080</v>
@@ -9160,25 +9704,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>953628.4510850001</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>107758.99126336</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>150324</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1356344.04234836</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>46</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>537550.0106</v>
+      </c>
+      <c r="U24" t="n">
+        <v>95111.1700656</v>
+      </c>
+      <c r="V24" t="n">
+        <v>70854.8579</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3920</v>
+      </c>
+      <c r="X24" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1081952.871165</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>121027.44581264</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>255711.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1616133.51697764</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>46</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>684210.7584484</v>
+      </c>
+      <c r="U25" t="n">
+        <v>128026.8074456</v>
+      </c>
+      <c r="V25" t="n">
+        <v>97704.56140000001</v>
+      </c>
+      <c r="W25" t="n">
+        <v>4560</v>
+      </c>
+      <c r="X25" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1347520.35739</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>148726.60048304</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>466485.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2145761.95787304</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/46.xlsx
+++ b/opm_hero_property/heroes/46.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,39029;31,9013;41,2698</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,58482;31,13508;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,6742;41,2020</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4787;31,1080;41,383</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7173;31,1619;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,808;41,287</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>39029.508</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>9013.504499999999</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2698.8246</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>58482.3104</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>13508.5509</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>6742.5696</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>2020.1728</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>4787.3385</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>1080.5025</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>383.6214</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>7173.4088</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>1619.3505</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>808.2719999999999</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>287.1552</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,39033;31,9014;41,2699</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,58488;31,13510;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,6743;41,2020</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4791;31,1081;41,384</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7179;31,1621;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,809;41,287</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>39033.792</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>9014.8135</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2699.2692</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>58488.7296</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>13510.5127</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>6743.5488</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>2020.5056</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>4791.6225</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1081.8115</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>384.066</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>7179.828</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>1621.3123</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>809.2511999999999</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>287.488</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,42134;31,9934;41,3140</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,63134;31,14888;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,7431;41,2351</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5125;31,1180;41,432</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7680;31,1769;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,883;41,324</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>42134.3677944</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>9934.0901737</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3140.98894098</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>63134.67174272001</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>14888.23384474</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>7431.21550656</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>2351.14961664</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>5125.4309988</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1180.8157669</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>432.89575794</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>7680.01089344</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>1769.69012338</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>883.3115347200001</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>324.03892992</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,45648;31,10975;41,3641</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,68400;31,16449;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,8210;41,2725</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5503;31,1292;41,488</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,8246;31,1937;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,967;41,365</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>45648.8358732</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>10975.9194083</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3641.69728314</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>68400.79534016</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>16449.62467166</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>8210.557895039999</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>2725.94884352</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>5503.3163514</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1292.8971671</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>488.15900442</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>8246.239104319999</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>1937.66666342</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>967.1542444800001</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>365.40557056</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,55311;31,11091;41,4329</t>
+          <t>21,49780;31,12200;41,4230</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,55311;31,11091;41,4329</t>
+          <t>21,74592;31,18285;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,27655;31,5545;41,2164</t>
+          <t>21,0;31,9126;41,3166</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6608;31,1295;41,566</t>
+          <t>21,5947;31,1424;41,553</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6608;31,1295;41,566</t>
+          <t>21,8911;31,2134;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3304;31,647;41,283</t>
+          <t>21,0;31,1065;41,414</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>55311</v>
+        <v>49780.7040843</v>
       </c>
       <c r="O6" t="n">
-        <v>11091</v>
+        <v>12200.7474512</v>
       </c>
       <c r="P6" t="n">
-        <v>4329</v>
+        <v>4230.61820856</v>
       </c>
       <c r="Q6" t="n">
-        <v>55311</v>
+        <v>74592.03913583999</v>
       </c>
       <c r="R6" t="n">
-        <v>11091</v>
+        <v>18285.27605024</v>
       </c>
       <c r="S6" t="n">
-        <v>4329</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27655</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5545</v>
+        <v>9126.792898560001</v>
       </c>
       <c r="V6" t="n">
-        <v>2164</v>
+        <v>3166.77854208</v>
       </c>
       <c r="W6" t="n">
-        <v>6608</v>
+        <v>5947.302907349999</v>
       </c>
       <c r="X6" t="n">
-        <v>1295</v>
+        <v>1424.5575344</v>
       </c>
       <c r="Y6" t="n">
-        <v>566</v>
+        <v>553.14944568</v>
       </c>
       <c r="Z6" t="n">
-        <v>6608</v>
+        <v>8911.514197679999</v>
       </c>
       <c r="AA6" t="n">
-        <v>1295</v>
+        <v>2134.98622688</v>
       </c>
       <c r="AB6" t="n">
-        <v>566</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3304</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>647</v>
+        <v>1065.64303872</v>
       </c>
       <c r="AE6" t="n">
-        <v>283</v>
+        <v>414.05338624</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,62754;31,12374;41,5588</t>
+          <t>21,56479;31,13611;41,5461</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,62754;31,12374;41,5588</t>
+          <t>21,84629;31,20399;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,31377;31,6187;41,2794</t>
+          <t>21,0;31,10182;41,4087</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7415;31,1434;41,705</t>
+          <t>21,6673;31,1577;41,689</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7415;31,1434;41,705</t>
+          <t>21,10000;31,2364;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3707;31,717;41,352</t>
+          <t>21,0;31,1180;41,516</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>62754</v>
+        <v>56479.1928435</v>
       </c>
       <c r="O7" t="n">
-        <v>12374</v>
+        <v>13611.50258545</v>
       </c>
       <c r="P7" t="n">
-        <v>5588</v>
+        <v>5461.22851506</v>
       </c>
       <c r="Q7" t="n">
-        <v>62754</v>
+        <v>84629.13975279999</v>
       </c>
       <c r="R7" t="n">
-        <v>12374</v>
+        <v>20399.57660209</v>
       </c>
       <c r="S7" t="n">
-        <v>5588</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>31377</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6187</v>
+        <v>10182.11102496</v>
       </c>
       <c r="V7" t="n">
-        <v>2794</v>
+        <v>4087.93713408</v>
       </c>
       <c r="W7" t="n">
-        <v>7415</v>
+        <v>6673.95730575</v>
       </c>
       <c r="X7" t="n">
-        <v>1434</v>
+        <v>1577.93185165</v>
       </c>
       <c r="Y7" t="n">
-        <v>705</v>
+        <v>689.82624018</v>
       </c>
       <c r="Z7" t="n">
-        <v>7415</v>
+        <v>10000.3423756</v>
       </c>
       <c r="AA7" t="n">
-        <v>1434</v>
+        <v>2364.84851533</v>
       </c>
       <c r="AB7" t="n">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3707</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>717</v>
+        <v>1180.37499552</v>
       </c>
       <c r="AE7" t="n">
-        <v>352</v>
+        <v>516.36116224</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,72373;31,13823;41,7330</t>
+          <t>21,65136;31,15206;41,7162</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,72373;31,13823;41,7330</t>
+          <t>21,97601;31,22789;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,36186;31,6911;41,3665</t>
+          <t>21,0;31,11375;41,5361</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,8455;31,1591;41,898</t>
+          <t>21,7609;31,1750;41,878</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,8455;31,1591;41,898</t>
+          <t>21,11402;31,2623;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,4227;31,795;41,449</t>
+          <t>21,0;31,1309;41,657</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>72373</v>
+        <v>65136.39174</v>
       </c>
       <c r="O8" t="n">
-        <v>13823</v>
+        <v>15206.3005941</v>
       </c>
       <c r="P8" t="n">
-        <v>7330</v>
+        <v>7162.768956960001</v>
       </c>
       <c r="Q8" t="n">
-        <v>72373</v>
+        <v>97601.19651199999</v>
       </c>
       <c r="R8" t="n">
-        <v>13823</v>
+        <v>22789.70244882</v>
       </c>
       <c r="S8" t="n">
-        <v>7330</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>36186</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6911</v>
+        <v>11375.10278208</v>
       </c>
       <c r="V8" t="n">
-        <v>3665</v>
+        <v>5361.60483328</v>
       </c>
       <c r="W8" t="n">
-        <v>8455</v>
+        <v>7609.54698</v>
       </c>
       <c r="X8" t="n">
-        <v>1591</v>
+        <v>1750.3426017</v>
       </c>
       <c r="Y8" t="n">
-        <v>898</v>
+        <v>878.38139088</v>
       </c>
       <c r="Z8" t="n">
-        <v>8455</v>
+        <v>11402.241824</v>
       </c>
       <c r="AA8" t="n">
-        <v>1591</v>
+        <v>2623.24073034</v>
       </c>
       <c r="AB8" t="n">
-        <v>898</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>4227</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>795</v>
+        <v>1309.34719296</v>
       </c>
       <c r="AE8" t="n">
-        <v>449</v>
+        <v>657.50185984</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,84747;31,15494;41,9673</t>
+          <t>21,76272;31,17043;41,9452</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,84747;31,15494;41,9673</t>
+          <t>21,114287;31,25543;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,42373;31,7747;41,4836</t>
+          <t>21,0;31,12749;41,7075</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9787;31,1770;41,1158</t>
+          <t>21,8808;31,1948;41,1131</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9787;31,1770;41,1158</t>
+          <t>21,13199;31,2919;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4893;31,885;41,579</t>
+          <t>21,0;31,1457;41,847</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>84747</v>
+        <v>76272.63979860001</v>
       </c>
       <c r="O9" t="n">
-        <v>15494</v>
+        <v>17043.73515845</v>
       </c>
       <c r="P9" t="n">
-        <v>9673</v>
+        <v>9452.85412428</v>
       </c>
       <c r="Q9" t="n">
-        <v>84747</v>
+        <v>114287.89201568</v>
       </c>
       <c r="R9" t="n">
-        <v>15494</v>
+        <v>25543.46801669</v>
       </c>
       <c r="S9" t="n">
-        <v>9673</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>42373</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>7747</v>
+        <v>12749.59928736</v>
       </c>
       <c r="V9" t="n">
-        <v>4836</v>
+        <v>7075.82063104</v>
       </c>
       <c r="W9" t="n">
-        <v>9787</v>
+        <v>8808.7174497</v>
       </c>
       <c r="X9" t="n">
-        <v>1770</v>
+        <v>1948.02565265</v>
       </c>
       <c r="Y9" t="n">
-        <v>1158</v>
+        <v>1131.55078284</v>
       </c>
       <c r="Z9" t="n">
-        <v>9787</v>
+        <v>13199.09408336</v>
       </c>
       <c r="AA9" t="n">
-        <v>1770</v>
+        <v>2919.50857553</v>
       </c>
       <c r="AB9" t="n">
-        <v>1158</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4893</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>885</v>
+        <v>1457.22438432</v>
       </c>
       <c r="AE9" t="n">
-        <v>579</v>
+        <v>847.0087731200001</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,94021;31,16385;41,11626</t>
+          <t>21,84619;31,18024;41,11360</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,94021;31,16385;41,11626</t>
+          <t>21,126794;31,27012;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,47010;31,8192;41,5813</t>
+          <t>21,0;31,13483;41,8503</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10786;31,1866;41,1373</t>
+          <t>21,9707;31,2053;41,1342</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,10786;31,1866;41,1373</t>
+          <t>21,14545;31,3077;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,5393;31,933;41,686</t>
+          <t>21,0;31,1536;41,1004</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>94021</v>
+        <v>84619.08565109999</v>
       </c>
       <c r="O10" t="n">
-        <v>16385</v>
+        <v>18024.1918626</v>
       </c>
       <c r="P10" t="n">
-        <v>11626</v>
+        <v>11360.3107518</v>
       </c>
       <c r="Q10" t="n">
-        <v>94021</v>
+        <v>126794.31246768</v>
       </c>
       <c r="R10" t="n">
-        <v>16385</v>
+        <v>27012.87975252</v>
       </c>
       <c r="S10" t="n">
-        <v>11626</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>47010</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8192</v>
+        <v>13483.03183488</v>
       </c>
       <c r="V10" t="n">
-        <v>5813</v>
+        <v>8503.624422400002</v>
       </c>
       <c r="W10" t="n">
-        <v>10786</v>
+        <v>9707.49143595</v>
       </c>
       <c r="X10" t="n">
-        <v>1866</v>
+        <v>2053.4722362</v>
       </c>
       <c r="Y10" t="n">
-        <v>1373</v>
+        <v>1342.4265054</v>
       </c>
       <c r="Z10" t="n">
-        <v>10786</v>
+        <v>14545.82843736</v>
       </c>
       <c r="AA10" t="n">
-        <v>1866</v>
+        <v>3077.54150724</v>
       </c>
       <c r="AB10" t="n">
-        <v>1373</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>5393</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>933</v>
+        <v>1536.10390656</v>
       </c>
       <c r="AE10" t="n">
-        <v>686</v>
+        <v>1004.8572672</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,105331;31,17443;41,14022</t>
+          <t>21,94798;31,19188;41,13701</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,105331;31,17443;41,14022</t>
+          <t>21,142046;31,28757;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,52665;31,8721;41,7011</t>
+          <t>21,0;31,14353;41,10256</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,12002;31,1980;41,1638</t>
+          <t>21,10802;31,2178;41,1601</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,12002;31,1980;41,1638</t>
+          <t>21,16186;31,3264;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,6001;31,990;41,819</t>
+          <t>21,0;31,1629;41,1198</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>105331</v>
+        <v>94798.256679</v>
       </c>
       <c r="O11" t="n">
-        <v>17443</v>
+        <v>19188.3811581</v>
       </c>
       <c r="P11" t="n">
-        <v>14022</v>
+        <v>13701.70736244</v>
       </c>
       <c r="Q11" t="n">
-        <v>105331</v>
+        <v>142046.9115952</v>
       </c>
       <c r="R11" t="n">
-        <v>17443</v>
+        <v>28757.65176162</v>
       </c>
       <c r="S11" t="n">
-        <v>14022</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>52665</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8721</v>
+        <v>14353.90590528</v>
       </c>
       <c r="V11" t="n">
-        <v>7011</v>
+        <v>10256.24878592</v>
       </c>
       <c r="W11" t="n">
-        <v>12002</v>
+        <v>10802.2148955</v>
       </c>
       <c r="X11" t="n">
-        <v>1980</v>
+        <v>2178.4382697</v>
       </c>
       <c r="Y11" t="n">
-        <v>1638</v>
+        <v>1601.06631732</v>
       </c>
       <c r="Z11" t="n">
-        <v>12002</v>
+        <v>16186.1759704</v>
       </c>
       <c r="AA11" t="n">
-        <v>1980</v>
+        <v>3264.82826394</v>
       </c>
       <c r="AB11" t="n">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>6001</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>990</v>
+        <v>1629.58499136</v>
       </c>
       <c r="AE11" t="n">
-        <v>819</v>
+        <v>1198.45899776</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,126166;31,19671;41,18286</t>
+          <t>21,113549;31,21638;41,17868</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,126166;31,19671;41,18286</t>
+          <t>21,170144;31,32429;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,63083;31,9835;41,9143</t>
+          <t>21,0;31,16186;41,13375</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,14240;31,2219;41,2109</t>
+          <t>21,12816;31,2441;41,2060</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,14240;31,2219;41,2109</t>
+          <t>21,19203;31,3658;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,7120;31,1109;41,1054</t>
+          <t>21,0;31,1826;41,1542</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>126166</v>
+        <v>113549.8272174</v>
       </c>
       <c r="O12" t="n">
-        <v>19671</v>
+        <v>21638.38602695</v>
       </c>
       <c r="P12" t="n">
-        <v>18286</v>
+        <v>17868.58175052</v>
       </c>
       <c r="Q12" t="n">
-        <v>126166</v>
+        <v>170144.50300512</v>
       </c>
       <c r="R12" t="n">
-        <v>19671</v>
+        <v>32429.47724039</v>
       </c>
       <c r="S12" t="n">
-        <v>18286</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>63083</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>9835</v>
+        <v>16186.63682016</v>
       </c>
       <c r="V12" t="n">
-        <v>9143</v>
+        <v>13375.31265536</v>
       </c>
       <c r="W12" t="n">
-        <v>14240</v>
+        <v>12816.2129823</v>
       </c>
       <c r="X12" t="n">
-        <v>2219</v>
+        <v>2441.31448715</v>
       </c>
       <c r="Y12" t="n">
-        <v>2109</v>
+        <v>2060.83734156</v>
       </c>
       <c r="Z12" t="n">
-        <v>14240</v>
+        <v>19203.97627824</v>
       </c>
       <c r="AA12" t="n">
-        <v>2219</v>
+        <v>3658.80119243</v>
       </c>
       <c r="AB12" t="n">
-        <v>2109</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>7120</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1109</v>
+        <v>1826.23005792</v>
       </c>
       <c r="AE12" t="n">
-        <v>1054</v>
+        <v>1542.61508608</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,129392;31,20118;41,18890</t>
+          <t>21,116452;31,22129;41,18459</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,129392;31,20118;41,18890</t>
+          <t>21,174494;31,33166;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,64696;31,10059;41,9445</t>
+          <t>21,0;31,16554;41,13817</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,14597;31,2268;41,2177</t>
+          <t>21,13137;31,2495;41,2127</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,14597;31,2268;41,2177</t>
+          <t>21,19685;31,3740;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,7298;31,1134;41,1088</t>
+          <t>21,0;31,1866;41,1592</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>129392</v>
+        <v>116452.9226196</v>
       </c>
       <c r="O13" t="n">
-        <v>20118</v>
+        <v>22129.9799875</v>
       </c>
       <c r="P13" t="n">
-        <v>18890</v>
+        <v>18459.07587594</v>
       </c>
       <c r="Q13" t="n">
-        <v>129392</v>
+        <v>174494.53802048</v>
       </c>
       <c r="R13" t="n">
-        <v>20118</v>
+        <v>33166.2297475</v>
       </c>
       <c r="S13" t="n">
-        <v>18890</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>64696</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>10059</v>
+        <v>16554.37464</v>
       </c>
       <c r="V13" t="n">
-        <v>9445</v>
+        <v>13817.31995392</v>
       </c>
       <c r="W13" t="n">
-        <v>14597</v>
+        <v>13137.4488042</v>
       </c>
       <c r="X13" t="n">
-        <v>2268</v>
+        <v>2495.8000375</v>
       </c>
       <c r="Y13" t="n">
-        <v>2177</v>
+        <v>2127.40098282</v>
       </c>
       <c r="Z13" t="n">
-        <v>14597</v>
+        <v>19685.32011296</v>
       </c>
       <c r="AA13" t="n">
-        <v>2268</v>
+        <v>3740.4587575</v>
       </c>
       <c r="AB13" t="n">
-        <v>2177</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>7298</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1134</v>
+        <v>1866.98808</v>
       </c>
       <c r="AE13" t="n">
-        <v>1088</v>
+        <v>1592.44050176</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,132622;31,20565;41,19495</t>
+          <t>21,119359;31,22622;41,19049</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,132622;31,20565;41,19495</t>
+          <t>21,178850;31,33904;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,66311;31,10282;41,9747</t>
+          <t>21,0;31,16922;41,14259</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,14954;31,2318;41,2245</t>
+          <t>21,13459;31,2550;41,2193</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,14954;31,2318;41,2245</t>
+          <t>21,20167;31,3822;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,7477;31,1159;41,1122</t>
+          <t>21,0;31,1907;41,1642</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>132622</v>
+        <v>119359.8185661</v>
       </c>
       <c r="O14" t="n">
-        <v>20565</v>
+        <v>22622.4232311</v>
       </c>
       <c r="P14" t="n">
-        <v>19495</v>
+        <v>19049.8300137</v>
       </c>
       <c r="Q14" t="n">
-        <v>132622</v>
+        <v>178850.26781968</v>
       </c>
       <c r="R14" t="n">
-        <v>20565</v>
+        <v>33904.25507622</v>
       </c>
       <c r="S14" t="n">
-        <v>19495</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>66311</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10282</v>
+        <v>16922.74776768</v>
       </c>
       <c r="V14" t="n">
-        <v>9747</v>
+        <v>14259.5218816</v>
       </c>
       <c r="W14" t="n">
-        <v>14954</v>
+        <v>13459.06095345</v>
       </c>
       <c r="X14" t="n">
-        <v>2318</v>
+        <v>2550.3415707</v>
       </c>
       <c r="Y14" t="n">
-        <v>2245</v>
+        <v>2193.9931161</v>
       </c>
       <c r="Z14" t="n">
-        <v>14954</v>
+        <v>20167.22784136</v>
       </c>
       <c r="AA14" t="n">
-        <v>2318</v>
+        <v>3822.20022414</v>
       </c>
       <c r="AB14" t="n">
-        <v>2245</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>7477</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1159</v>
+        <v>1907.78798016</v>
       </c>
       <c r="AE14" t="n">
-        <v>1122</v>
+        <v>1642.2872448</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,135847;31,21012;41,20099</t>
+          <t>21,122262;31,23114;41,19640</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,135847;31,21012;41,20099</t>
+          <t>21,183200;31,34641;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,67923;31,10506;41,10049</t>
+          <t>21,0;31,17290;41,14701</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,15311;31,2368;41,2313</t>
+          <t>21,13780;31,2604;41,2260</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,15311;31,2368;41,2313</t>
+          <t>21,20648;31,3903;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,7655;31,1184;41,1156</t>
+          <t>21,0;31,1948;41,1692</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>135847</v>
+        <v>122262.8824683</v>
       </c>
       <c r="O15" t="n">
-        <v>21012</v>
+        <v>23114.01719165</v>
       </c>
       <c r="P15" t="n">
-        <v>20099</v>
+        <v>19640.32413912</v>
       </c>
       <c r="Q15" t="n">
-        <v>135847</v>
+        <v>183200.25563504</v>
       </c>
       <c r="R15" t="n">
-        <v>21012</v>
+        <v>34641.00758333</v>
       </c>
       <c r="S15" t="n">
-        <v>20099</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>67923</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>10506</v>
+        <v>17290.48558752</v>
       </c>
       <c r="V15" t="n">
-        <v>10049</v>
+        <v>14701.52918016</v>
       </c>
       <c r="W15" t="n">
-        <v>15311</v>
+        <v>13780.26527535</v>
       </c>
       <c r="X15" t="n">
-        <v>2368</v>
+        <v>2604.82712105</v>
       </c>
       <c r="Y15" t="n">
-        <v>2313</v>
+        <v>2260.55675736</v>
       </c>
       <c r="Z15" t="n">
-        <v>15311</v>
+        <v>20648.52447608</v>
       </c>
       <c r="AA15" t="n">
-        <v>2368</v>
+        <v>3903.85778921</v>
       </c>
       <c r="AB15" t="n">
-        <v>2313</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>7655</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1184</v>
+        <v>1948.54600224</v>
       </c>
       <c r="AE15" t="n">
-        <v>1156</v>
+        <v>1692.11266048</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,139073;31,21459;41,20704</t>
+          <t>21,125165;31,23605;41,20230</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,139073;31,21459;41,20704</t>
+          <t>21,187550;31,35377;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,69536;31,10729;41,10352</t>
+          <t>21,0;31,17658;41,15143</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,15668;31,2417;41,2381</t>
+          <t>21,14101;31,2659;41,2327</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,15668;31,2417;41,2381</t>
+          <t>21,21129;31,3985;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7834;31,1208;41,1190</t>
+          <t>21,0;31,1989;41,1741</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>139073</v>
+        <v>125165.9778705</v>
       </c>
       <c r="O16" t="n">
-        <v>21459</v>
+        <v>23605.6111522</v>
       </c>
       <c r="P16" t="n">
-        <v>20704</v>
+        <v>20230.81826454</v>
       </c>
       <c r="Q16" t="n">
-        <v>139073</v>
+        <v>187550.2906504</v>
       </c>
       <c r="R16" t="n">
-        <v>21459</v>
+        <v>35377.76009044</v>
       </c>
       <c r="S16" t="n">
-        <v>20704</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>69536</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>10729</v>
+        <v>17658.22340736</v>
       </c>
       <c r="V16" t="n">
-        <v>10352</v>
+        <v>15143.53647872</v>
       </c>
       <c r="W16" t="n">
-        <v>15668</v>
+        <v>14101.50109725</v>
       </c>
       <c r="X16" t="n">
-        <v>2417</v>
+        <v>2659.3126714</v>
       </c>
       <c r="Y16" t="n">
-        <v>2381</v>
+        <v>2327.12039862</v>
       </c>
       <c r="Z16" t="n">
-        <v>15668</v>
+        <v>21129.8683108</v>
       </c>
       <c r="AA16" t="n">
-        <v>2417</v>
+        <v>3985.51535428</v>
       </c>
       <c r="AB16" t="n">
-        <v>2381</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>7834</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1208</v>
+        <v>1989.30402432</v>
       </c>
       <c r="AE16" t="n">
-        <v>1190</v>
+        <v>1741.93807616</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,142298;31,21907;41,21308</t>
+          <t>21,128069;31,24098;41,20821</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,142298;31,21907;41,21308</t>
+          <t>21,191900;31,36115;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,71149;31,10953;41,10654</t>
+          <t>21,0;31,18026;41,15585</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,16025;31,2467;41,2449</t>
+          <t>21,14422;31,2713;41,2393</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,16025;31,2467;41,2449</t>
+          <t>21,21611;31,4067;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,8012;31,1233;41,1224</t>
+          <t>21,0;31,2030;41,1791</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>142298</v>
+        <v>128069.0417727</v>
       </c>
       <c r="O17" t="n">
-        <v>21907</v>
+        <v>24098.0543958</v>
       </c>
       <c r="P17" t="n">
-        <v>21308</v>
+        <v>20821.34658996</v>
       </c>
       <c r="Q17" t="n">
-        <v>142298</v>
+        <v>191900.27846576</v>
       </c>
       <c r="R17" t="n">
-        <v>21907</v>
+        <v>36115.78541916001</v>
       </c>
       <c r="S17" t="n">
-        <v>21308</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>71149</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10953</v>
+        <v>18026.59653504</v>
       </c>
       <c r="V17" t="n">
-        <v>10654</v>
+        <v>15585.56937728</v>
       </c>
       <c r="W17" t="n">
-        <v>16025</v>
+        <v>14422.70541915</v>
       </c>
       <c r="X17" t="n">
-        <v>2467</v>
+        <v>2713.8542046</v>
       </c>
       <c r="Y17" t="n">
-        <v>2449</v>
+        <v>2393.71823988</v>
       </c>
       <c r="Z17" t="n">
-        <v>16025</v>
+        <v>21611.16494552</v>
       </c>
       <c r="AA17" t="n">
-        <v>2467</v>
+        <v>4067.25682092</v>
       </c>
       <c r="AB17" t="n">
-        <v>2449</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>8012</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1233</v>
+        <v>2030.10392448</v>
       </c>
       <c r="AE17" t="n">
-        <v>1224</v>
+        <v>1791.78909184</v>
       </c>
     </row>
   </sheetData>
@@ -5107,141 +5107,141 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8182</v>
+        <v>7171</v>
       </c>
       <c r="C2" t="n">
-        <v>1420</v>
+        <v>1349</v>
       </c>
       <c r="D2" t="n">
-        <v>883</v>
+        <v>1166</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="n">
-        <v>8182</v>
+        <v>10032</v>
       </c>
       <c r="I2" t="n">
-        <v>1420</v>
+        <v>1887</v>
       </c>
       <c r="J2" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4091</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>710</v>
+        <v>949</v>
       </c>
       <c r="P2" t="n">
-        <v>441</v>
+        <v>821</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>3594</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>757</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>461</v>
       </c>
       <c r="W2" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X2" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>5028</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>1059</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>532</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,8182;31,1420;41,883;22,40;32,40;42,40</t>
+          <t>21,7171;31,1349;41,1166;22,36;32,44;42,39</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,8182;31,1420;41,883;22,40;32,40;42,40</t>
+          <t>21,10032;31,1887;41,0;22,54;32,66;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,4091;31,710;41,441;22,20;32,20;42,20</t>
+          <t>21,0;31,949;41,821;22,0;32,33;42,29</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,3594;31,757;41,461;22,31;32,38;42,34</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,5028;31,1059;41,0;22,47;32,57;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,0;31,532;41,324;22,0;32,28;42,24</t>
         </is>
       </c>
     </row>
@@ -5250,141 +5250,141 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16564</v>
+        <v>14343</v>
       </c>
       <c r="C3" t="n">
-        <v>2725</v>
+        <v>2698</v>
       </c>
       <c r="D3" t="n">
-        <v>1900</v>
+        <v>2333</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H3" t="n">
-        <v>16564</v>
+        <v>20064</v>
       </c>
       <c r="I3" t="n">
-        <v>2725</v>
+        <v>3775</v>
       </c>
       <c r="J3" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8282</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1362</v>
+        <v>1899</v>
       </c>
       <c r="P3" t="n">
-        <v>950</v>
+        <v>1642</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>4169</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>839</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>575</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>5832</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>1173</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>590</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,16564;31,2725;41,1900;22,80;32,80;42,80</t>
+          <t>21,14343;31,2698;41,2333;22,72;32,88;42,78</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,16564;31,2725;41,1900;22,80;32,80;42,80</t>
+          <t>21,20064;31,3775;41,0;22,108;32,132;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,8282;31,1362;41,950;22,40;32,40;42,40</t>
+          <t>21,0;31,1899;41,1642;22,0;32,66;42,58</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,4169;31,839;41,575;22,63;32,77;42,68</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,5832;31,1173;41,0;22,94;32,115;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,0;31,590;41,405;22,0;32,57;42,51</t>
         </is>
       </c>
     </row>
@@ -5393,141 +5393,141 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24962</v>
+        <v>21515</v>
       </c>
       <c r="C4" t="n">
-        <v>3890</v>
+        <v>4048</v>
       </c>
       <c r="D4" t="n">
-        <v>3099</v>
+        <v>3500</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H4" t="n">
-        <v>24962</v>
+        <v>30096</v>
       </c>
       <c r="I4" t="n">
-        <v>3890</v>
+        <v>5663</v>
       </c>
       <c r="J4" t="n">
-        <v>3099</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>12481</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1945</v>
+        <v>2849</v>
       </c>
       <c r="P4" t="n">
-        <v>1549</v>
+        <v>2463</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>5154</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>981</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>775</v>
       </c>
       <c r="W4" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="X4" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>7210</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>1373</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>690</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>545</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,24962;31,3890;41,3099;22,120;32,120;42,120</t>
+          <t>21,21515;31,4048;41,3500;22,108;32,132;42,117</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,24962;31,3890;41,3099;22,120;32,120;42,120</t>
+          <t>21,30096;31,5663;41,0;22,162;32,198;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,12481;31,1945;41,1549;22,60;32,60;42,60</t>
+          <t>21,0;31,2849;41,2463;22,0;32,99;42,88</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,5154;31,981;41,775;22,94;32,115;42,102</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,7210;31,1373;41,0;22,141;32,173;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,0;31,690;41,545;22,0;32,85;42,76</t>
         </is>
       </c>
     </row>
@@ -5536,141 +5536,141 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33242</v>
+        <v>28687</v>
       </c>
       <c r="C5" t="n">
-        <v>5166</v>
+        <v>5397</v>
       </c>
       <c r="D5" t="n">
-        <v>4174</v>
+        <v>4667</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H5" t="n">
-        <v>33242</v>
+        <v>40129</v>
       </c>
       <c r="I5" t="n">
-        <v>5166</v>
+        <v>7550</v>
       </c>
       <c r="J5" t="n">
-        <v>4174</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>16621</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2583</v>
+        <v>3799</v>
       </c>
       <c r="P5" t="n">
-        <v>2087</v>
+        <v>3285</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>5533</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>1051</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>844</v>
       </c>
       <c r="W5" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="X5" t="n">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>7739</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>1470</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>739</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>594</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,33242;31,5166;41,4174;22,160;32,160;42,160</t>
+          <t>21,28687;31,5397;41,4667;22,144;32,176;42,156</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,33242;31,5166;41,4174;22,160;32,160;42,160</t>
+          <t>21,40129;31,7550;41,0;22,216;32,264;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,16621;31,2583;41,2087;22,80;32,80;42,80</t>
+          <t>21,0;31,3799;41,3285;22,0;32,132;42,117</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,5533;31,1051;41,844;22,126;32,154;42,136</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,7739;31,1470;41,0;22,189;32,231;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,0;31,739;41,594;22,0;32,115;42,102</t>
         </is>
       </c>
     </row>
@@ -5679,141 +5679,141 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>41508</v>
+        <v>35859</v>
       </c>
       <c r="C6" t="n">
-        <v>6433</v>
+        <v>6747</v>
       </c>
       <c r="D6" t="n">
-        <v>5270</v>
+        <v>5834</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H6" t="n">
-        <v>41508</v>
+        <v>50161</v>
       </c>
       <c r="I6" t="n">
-        <v>6433</v>
+        <v>9438</v>
       </c>
       <c r="J6" t="n">
-        <v>5270</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>20754</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3216</v>
+        <v>4749</v>
       </c>
       <c r="P6" t="n">
-        <v>2635</v>
+        <v>4106</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>5936</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>1124</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="W6" t="n">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="X6" t="n">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>8304</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>1573</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>791</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>647</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,41508;31,6433;41,5270;22,200;32,200;42,200</t>
+          <t>21,35859;31,6747;41,5834;22,180;32,220;42,195</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,41508;31,6433;41,5270;22,200;32,200;42,200</t>
+          <t>21,50161;31,9438;41,0;22,270;32,330;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,20754;31,3216;41,2635;22,100;32,100;42,100</t>
+          <t>21,0;31,4749;41,4106;22,0;32,165;42,146</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,5936;31,1124;41,919;22,157;32,192;42,171</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,8304;31,1573;41,0;22,236;32,288;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,0;31,791;41,647;22,0;32,143;42,127</t>
         </is>
       </c>
     </row>
@@ -5822,141 +5822,141 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>48442</v>
+        <v>43030</v>
       </c>
       <c r="C7" t="n">
-        <v>7491</v>
+        <v>8096</v>
       </c>
       <c r="D7" t="n">
-        <v>6838</v>
+        <v>7000</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="F7" t="n">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H7" t="n">
-        <v>48442</v>
+        <v>60193</v>
       </c>
       <c r="I7" t="n">
-        <v>7491</v>
+        <v>11326</v>
       </c>
       <c r="J7" t="n">
-        <v>6838</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>396</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>24221</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3745</v>
+        <v>5699</v>
       </c>
       <c r="P7" t="n">
-        <v>3419</v>
+        <v>4927</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>6366</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1203</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>999</v>
       </c>
       <c r="W7" t="n">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="X7" t="n">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>8906</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>1683</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>847</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>703</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,48442;31,7491;41,6838;22,240;32,240;42,240</t>
+          <t>21,43030;31,8096;41,7000;22,216;32,264;42,234</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,48442;31,7491;41,6838;22,240;32,240;42,240</t>
+          <t>21,60193;31,11326;41,0;22,324;32,396;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,24221;31,3745;41,3419;22,120;32,120;42,120</t>
+          <t>21,0;31,5699;41,4927;22,0;32,198;42,176</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,6366;31,1203;41,999;22,189;32,231;42,205</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,8906;31,1683;41,0;22,283;32,346;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,0;31,847;41,703;22,0;32,173;42,154</t>
         </is>
       </c>
     </row>
@@ -5965,141 +5965,141 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>55376</v>
+        <v>50202</v>
       </c>
       <c r="C8" t="n">
-        <v>8544</v>
+        <v>9445</v>
       </c>
       <c r="D8" t="n">
-        <v>8417</v>
+        <v>8167</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="F8" t="n">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H8" t="n">
-        <v>55376</v>
+        <v>70226</v>
       </c>
       <c r="I8" t="n">
-        <v>8544</v>
+        <v>13213</v>
       </c>
       <c r="J8" t="n">
-        <v>8417</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>462</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>27688</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4272</v>
+        <v>6649</v>
       </c>
       <c r="P8" t="n">
-        <v>4208</v>
+        <v>5749</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>6824</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>1286</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1085</v>
       </c>
       <c r="W8" t="n">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="X8" t="n">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>9546</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>1800</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>330</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>404</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>905</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>764</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,55376;31,8544;41,8417;22,280;32,280;42,280</t>
+          <t>21,50202;31,9445;41,8167;22,252;32,308;42,273</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,55376;31,8544;41,8417;22,280;32,280;42,280</t>
+          <t>21,70226;31,13213;41,0;22,378;32,462;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,27688;31,4272;41,4208;22,140;32,140;42,140</t>
+          <t>21,0;31,6649;41,5749;22,0;32,231;42,205</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,6824;31,1286;41,1085;22,220;32,269;42,239</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,9546;31,1800;41,0;22,330;32,404;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,0;31,905;41,764;22,0;32,201;42,178</t>
         </is>
       </c>
     </row>
@@ -6108,141 +6108,141 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>62851</v>
+        <v>57374</v>
       </c>
       <c r="C9" t="n">
-        <v>9676</v>
+        <v>10795</v>
       </c>
       <c r="D9" t="n">
-        <v>9817</v>
+        <v>9334</v>
       </c>
       <c r="E9" t="n">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="F9" t="n">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H9" t="n">
-        <v>62851</v>
+        <v>80258</v>
       </c>
       <c r="I9" t="n">
-        <v>9676</v>
+        <v>15101</v>
       </c>
       <c r="J9" t="n">
-        <v>9817</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>519</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>31425</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4838</v>
+        <v>7599</v>
       </c>
       <c r="P9" t="n">
-        <v>4908</v>
+        <v>6570</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>7589</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>1428</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1230</v>
       </c>
       <c r="W9" t="n">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="X9" t="n">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>10616</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>1997</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>462</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>1005</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>866</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,62851;31,9676;41,9817;22,315;32,315;42,315</t>
+          <t>21,57374;31,10795;41,9334;22,283;32,346;42,308</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,62851;31,9676;41,9817;22,315;32,315;42,315</t>
+          <t>21,80258;31,15101;41,0;22,425;32,519;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,31425;31,4838;41,4908;22,157;32,157;42,157</t>
+          <t>21,0;31,7599;41,6570;22,0;32,259;42,230</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,7589;31,1428;41,1230;22,252;32,308;42,273</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,10616;31,1997;41,0;22,378;32,462;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,0;31,1005;41,866;22,0;32,231;42,205</t>
         </is>
       </c>
     </row>
@@ -6251,141 +6251,141 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>71338</v>
+        <v>64546</v>
       </c>
       <c r="C10" t="n">
-        <v>10982</v>
+        <v>12144</v>
       </c>
       <c r="D10" t="n">
-        <v>10812</v>
+        <v>10501</v>
       </c>
       <c r="E10" t="n">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="F10" t="n">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H10" t="n">
-        <v>71338</v>
+        <v>90290</v>
       </c>
       <c r="I10" t="n">
-        <v>10982</v>
+        <v>16989</v>
       </c>
       <c r="J10" t="n">
-        <v>10812</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>452</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>552</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>35669</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5491</v>
+        <v>8549</v>
       </c>
       <c r="P10" t="n">
-        <v>5406</v>
+        <v>7391</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>8217</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>1546</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1349</v>
       </c>
       <c r="W10" t="n">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="X10" t="n">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>11495</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>2162</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>519</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>1088</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>949</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,71338;31,10982;41,10812;22,335;32,335;42,335</t>
+          <t>21,64546;31,12144;41,10501;22,301;32,368;42,327</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,71338;31,10982;41,10812;22,335;32,335;42,335</t>
+          <t>21,90290;31,16989;41,0;22,452;32,552;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,35669;31,5491;41,5406;22,167;32,167;42,167</t>
+          <t>21,0;31,8549;41,7391;22,0;32,275;42,244</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,8217;31,1546;41,1349;22,283;32,346;42,308</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,11495;31,2162;41,0;22,425;32,519;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,0;31,1088;41,949;22,0;32,259;42,230</t>
         </is>
       </c>
     </row>
@@ -6394,141 +6394,141 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>79687</v>
+        <v>71718</v>
       </c>
       <c r="C11" t="n">
-        <v>12268</v>
+        <v>13494</v>
       </c>
       <c r="D11" t="n">
-        <v>11932</v>
+        <v>11668</v>
       </c>
       <c r="E11" t="n">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="F11" t="n">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H11" t="n">
-        <v>79687</v>
+        <v>100323</v>
       </c>
       <c r="I11" t="n">
-        <v>12268</v>
+        <v>18877</v>
       </c>
       <c r="J11" t="n">
-        <v>11932</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>472</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>577</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>39843</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>6134</v>
+        <v>9499</v>
       </c>
       <c r="P11" t="n">
-        <v>5966</v>
+        <v>8213</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>8859</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>1667</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1471</v>
       </c>
       <c r="W11" t="n">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="X11" t="n">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>12393</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>2331</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>472</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>577</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>1173</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>1035</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,79687;31,12268;41,11932;22,350;32,350;42,350</t>
+          <t>21,71718;31,13494;41,11668;22,315;32,385;42,342</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,79687;31,12268;41,11932;22,350;32,350;42,350</t>
+          <t>21,100323;31,18877;41,0;22,472;32,577;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,39843;31,6134;41,5966;22,175;32,175;42,175</t>
+          <t>21,0;31,9499;41,8213;22,0;32,288;42,256</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,8859;31,1667;41,1471;22,315;32,385;42,342</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,12393;31,2331;41,0;22,472;32,577;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,0;31,1173;41,1035;22,0;32,288;42,256</t>
         </is>
       </c>
     </row>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5446512.665159199</v>
+        <v>5646299.706931899</v>
       </c>
       <c r="U2" t="n">
-        <v>885137.2600888</v>
+        <v>922729.3144846</v>
       </c>
       <c r="V2" t="n">
-        <v>735227.1038</v>
+        <v>767716.4503899601</v>
       </c>
       <c r="W2" t="n">
         <v>4560</v>
@@ -6886,8 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,292223;31,54992;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,27525;41,23798</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11886045.94917</v>
       </c>
@@ -6907,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>645985.95999599</v>
       </c>
       <c r="AS2" t="n">
-        <v>15797880.60662192</v>
+        <v>16443866.56661791</v>
       </c>
     </row>
     <row r="3">
@@ -6974,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>684210.7584484</v>
+        <v>707492.4638675499</v>
       </c>
       <c r="U3" t="n">
-        <v>128026.8074456</v>
+        <v>132407.6616502</v>
       </c>
       <c r="V3" t="n">
-        <v>97704.56140000001</v>
+        <v>101569.27963988</v>
       </c>
       <c r="W3" t="n">
         <v>4560</v>
@@ -7021,8 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,34004;31,6398;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,3203;41,2826</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1347520.35739</v>
       </c>
@@ -7042,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>75731.7293102</v>
       </c>
       <c r="AS3" t="n">
-        <v>2145761.95787304</v>
+        <v>2221493.68718324</v>
       </c>
     </row>
     <row r="4">
@@ -7514,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>59256.1516</v>
+        <v>66580.08014576</v>
       </c>
       <c r="U7" t="n">
-        <v>10106.3</v>
+        <v>11487.34212</v>
       </c>
       <c r="V7" t="n">
-        <v>5987.059999999999</v>
+        <v>7170.980734</v>
       </c>
       <c r="W7" t="n">
         <v>1080</v>
@@ -7561,8 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,10261;31,1935;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,973;41,834</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>119974.6166</v>
       </c>
@@ -7582,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>23660.66339426</v>
       </c>
       <c r="AS7" t="n">
-        <v>168570.7166</v>
+        <v>192231.37999426</v>
       </c>
     </row>
     <row r="8">
@@ -7649,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>59426.0722064</v>
+        <v>74074.92929792</v>
       </c>
       <c r="U8" t="n">
-        <v>10149.9938</v>
+        <v>12912.07804</v>
       </c>
       <c r="V8" t="n">
-        <v>5987.059999999999</v>
+        <v>8355.901468</v>
       </c>
       <c r="W8" t="n">
         <v>1080</v>
@@ -7696,8 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,20522;31,3871;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,1947;41,1668</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>119974.6166</v>
       </c>
@@ -7717,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>47328.07678852</v>
       </c>
       <c r="AS8" t="n">
-        <v>169042.1244264</v>
+        <v>216370.20121492</v>
       </c>
     </row>
     <row r="9">
@@ -7919,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>255644.1306384</v>
+        <v>263521.06457296</v>
       </c>
       <c r="U10" t="n">
-        <v>40744.380624</v>
+        <v>42227.7834816</v>
       </c>
       <c r="V10" t="n">
-        <v>29660.7746</v>
+        <v>30922.67550094</v>
       </c>
       <c r="W10" t="n">
         <v>2540</v>
@@ -7966,8 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,11090;31,2088;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,1049;41,892</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>549078.23115</v>
       </c>
@@ -7987,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>25368.343832405</v>
       </c>
       <c r="AS10" t="n">
-        <v>719647.810894</v>
+        <v>745016.1547264049</v>
       </c>
     </row>
     <row r="11">
@@ -8054,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>263487.8410224</v>
+        <v>302876.5106951999</v>
       </c>
       <c r="U11" t="n">
-        <v>42577.146864</v>
+        <v>49996.161152</v>
       </c>
       <c r="V11" t="n">
-        <v>29660.7746</v>
+        <v>35974.2791047</v>
       </c>
       <c r="W11" t="n">
         <v>2840</v>
@@ -8101,8 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,55455;31,10446;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,5253;41,4465</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>549078.23115</v>
       </c>
@@ -8122,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>126882.519162025</v>
       </c>
       <c r="AS11" t="n">
-        <v>740632.608334</v>
+        <v>867515.1274960248</v>
       </c>
     </row>
     <row r="12">
@@ -8189,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>271331.5514064</v>
+        <v>310720.2210792</v>
       </c>
       <c r="U12" t="n">
-        <v>44409.913104</v>
+        <v>51828.927392</v>
       </c>
       <c r="V12" t="n">
-        <v>29660.7746</v>
+        <v>35974.2791047</v>
       </c>
       <c r="W12" t="n">
         <v>3140</v>
@@ -8236,8 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,55455;31,10446;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,5253;41,4465</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>549078.23115</v>
       </c>
@@ -8257,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>126882.519162025</v>
       </c>
       <c r="AS12" t="n">
-        <v>761617.405774</v>
+        <v>888499.9249360249</v>
       </c>
     </row>
     <row r="13">
@@ -8324,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>279175.2617904</v>
+        <v>357070.1837178</v>
       </c>
       <c r="U13" t="n">
-        <v>46242.679344</v>
+        <v>60912.704348</v>
       </c>
       <c r="V13" t="n">
-        <v>29660.7746</v>
+        <v>42169.75173132</v>
       </c>
       <c r="W13" t="n">
         <v>3440</v>
@@ -8371,8 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,109578;31,20639;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,10378;41,8842</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>549078.23115</v>
       </c>
@@ -8392,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>251044.71296009</v>
       </c>
       <c r="AS13" t="n">
-        <v>782602.203214</v>
+        <v>1033646.91617409</v>
       </c>
     </row>
     <row r="14">
@@ -8459,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>279175.2617904</v>
+        <v>318563.9314632</v>
       </c>
       <c r="U14" t="n">
-        <v>46242.679344</v>
+        <v>53661.69363199999</v>
       </c>
       <c r="V14" t="n">
-        <v>29660.7746</v>
+        <v>35974.2791047</v>
       </c>
       <c r="W14" t="n">
         <v>3360</v>
@@ -8506,8 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,55455;31,10446;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,5253;41,4465</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>549078.23115</v>
       </c>
@@ -8527,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>126882.519162025</v>
       </c>
       <c r="AS14" t="n">
-        <v>782419.203214</v>
+        <v>909301.722376025</v>
       </c>
     </row>
     <row r="15">
@@ -8594,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>420357.6245112</v>
+        <v>469752.54540928</v>
       </c>
       <c r="U15" t="n">
-        <v>69128.1275208</v>
+        <v>78430.07167472001</v>
       </c>
       <c r="V15" t="n">
-        <v>50943.839</v>
+        <v>58911.2427126</v>
       </c>
       <c r="W15" t="n">
         <v>3520</v>
@@ -8641,8 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,69740;31,13134;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,6603;41,5654</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>848403.9373699999</v>
       </c>
@@ -8662,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>159390.906907578</v>
       </c>
       <c r="AS15" t="n">
-        <v>1204254.77865472</v>
+        <v>1363645.685562298</v>
       </c>
     </row>
     <row r="16">
@@ -8729,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>420357.6245112</v>
+        <v>477985.36555896</v>
       </c>
       <c r="U16" t="n">
-        <v>69128.1275208</v>
+        <v>79980.06236703999</v>
       </c>
       <c r="V16" t="n">
-        <v>50943.839</v>
+        <v>60239.4766647</v>
       </c>
       <c r="W16" t="n">
         <v>3600</v>
@@ -8776,8 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,81364;31,15323;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,7704;41,6596</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>848403.9373699999</v>
       </c>
@@ -8797,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>185956.008058841</v>
       </c>
       <c r="AS16" t="n">
-        <v>1204437.77865472</v>
+        <v>1390393.786713561</v>
       </c>
     </row>
     <row r="17">
@@ -8864,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1056784.053534</v>
+        <v>1132691.73495305</v>
       </c>
       <c r="U17" t="n">
-        <v>172327.4157888</v>
+        <v>186618.77834048</v>
       </c>
       <c r="V17" t="n">
-        <v>149415.1</v>
+        <v>161956.92924</v>
       </c>
       <c r="W17" t="n">
         <v>3920</v>
@@ -8911,8 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,108091;31,20345;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,10216;41,8965</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1951841.12002</v>
       </c>
@@ -8932,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>246633.601155642</v>
       </c>
       <c r="AS17" t="n">
-        <v>3119881.04747672</v>
+        <v>3366514.648632362</v>
       </c>
     </row>
     <row r="18">
@@ -8999,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5446512.665159199</v>
+        <v>5646299.706931899</v>
       </c>
       <c r="U18" t="n">
-        <v>885137.2600888</v>
+        <v>922729.3144846</v>
       </c>
       <c r="V18" t="n">
-        <v>735227.1038</v>
+        <v>767716.4503899601</v>
       </c>
       <c r="W18" t="n">
         <v>4560</v>
@@ -9046,8 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,292223;31,54992;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,27525;41,23798</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11886045.94917</v>
       </c>
@@ -9067,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>645985.95999599</v>
       </c>
       <c r="AS18" t="n">
-        <v>15797880.60662192</v>
+        <v>16443866.56661791</v>
       </c>
     </row>
     <row r="19">
@@ -9134,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8997656.966283601</v>
+        <v>9197444.008056302</v>
       </c>
       <c r="U19" t="n">
-        <v>1461755.6254152</v>
+        <v>1499347.679811</v>
       </c>
       <c r="V19" t="n">
-        <v>1209711.4616</v>
+        <v>1242200.80818996</v>
       </c>
       <c r="W19" t="n">
         <v>5600</v>
@@ -9181,8 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,292223;31,54992;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,27525;41,23798</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>19284376.22818</v>
       </c>
@@ -9202,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>645985.95999599</v>
       </c>
       <c r="AS19" t="n">
-        <v>26058355.68584848</v>
+        <v>26704341.64584447</v>
       </c>
     </row>
     <row r="20">
@@ -9269,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>228457.6050596</v>
+        <v>232670.68680829</v>
       </c>
       <c r="U20" t="n">
-        <v>39456.3889256</v>
+        <v>40344.17309848</v>
       </c>
       <c r="V20" t="n">
-        <v>26165.516</v>
+        <v>26706.6727544</v>
       </c>
       <c r="W20" t="n">
         <v>1080</v>
@@ -9316,8 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,5966;31,1255;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,628;41,380</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>573564.53134</v>
       </c>
@@ -9337,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>13450.443879362</v>
       </c>
       <c r="AS20" t="n">
-        <v>656313.9056462401</v>
+        <v>669764.3495256021</v>
       </c>
     </row>
     <row r="21">
@@ -9404,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>295227.305608</v>
+        <v>300894.1626246001</v>
       </c>
       <c r="U21" t="n">
-        <v>49754.2541208</v>
+        <v>50894.76224156001</v>
       </c>
       <c r="V21" t="n">
-        <v>34852.8668</v>
+        <v>35634.85789424001</v>
       </c>
       <c r="W21" t="n">
         <v>1710</v>
@@ -9451,8 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,8066;31,1623;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,813;41,560</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>683791.9178200001</v>
       </c>
@@ -9472,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>18032.811841724</v>
       </c>
       <c r="AS21" t="n">
-        <v>846842.8931415201</v>
+        <v>864875.7049832441</v>
       </c>
     </row>
     <row r="22">
@@ -9539,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>408065.1554096</v>
+        <v>418744.17980068</v>
       </c>
       <c r="U22" t="n">
-        <v>67251.0724534</v>
+        <v>69278.94011868001</v>
       </c>
       <c r="V22" t="n">
-        <v>49930.26620000001</v>
+        <v>51575.88737202001</v>
       </c>
       <c r="W22" t="n">
         <v>3140</v>
@@ -9586,8 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,15433;31,2928;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,1464;41,1186</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>872087.5872599999</v>
       </c>
@@ -9607,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>34133.633020627</v>
       </c>
       <c r="AS22" t="n">
-        <v>1172504.58598806</v>
+        <v>1206638.219008687</v>
       </c>
     </row>
     <row r="23">
@@ -9674,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>465506.4344924</v>
+        <v>479569.7543846</v>
       </c>
       <c r="U23" t="n">
-        <v>79056.8501784</v>
+        <v>81715.10968076</v>
       </c>
       <c r="V23" t="n">
-        <v>57595.8855</v>
+        <v>59810.42544345</v>
       </c>
       <c r="W23" t="n">
         <v>3600</v>
@@ -9721,8 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,20404;31,3860;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,1930;41,1605</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>953628.4510850001</v>
       </c>
@@ -9742,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>45138.9151333215</v>
       </c>
       <c r="AS23" t="n">
-        <v>1356344.04234836</v>
+        <v>1401482.957481681</v>
       </c>
     </row>
     <row r="24">
@@ -9809,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>537550.0106</v>
+        <v>554493.77098</v>
       </c>
       <c r="U24" t="n">
-        <v>95111.1700656</v>
+        <v>98303.34446528001</v>
       </c>
       <c r="V24" t="n">
-        <v>70854.8579</v>
+        <v>73578.93388067</v>
       </c>
       <c r="W24" t="n">
         <v>3920</v>
@@ -9856,8 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,24648;31,4643;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,2328;41,1987</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1081952.871165</v>
       </c>
@@ -9877,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>54633.2006266445</v>
       </c>
       <c r="AS24" t="n">
-        <v>1616133.51697764</v>
+        <v>1670766.717604285</v>
       </c>
     </row>
     <row r="25">
@@ -9944,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>684210.7584484</v>
+        <v>707492.4638675499</v>
       </c>
       <c r="U25" t="n">
-        <v>128026.8074456</v>
+        <v>132407.6616502</v>
       </c>
       <c r="V25" t="n">
-        <v>97704.56140000001</v>
+        <v>101569.27963988</v>
       </c>
       <c r="W25" t="n">
         <v>4560</v>
@@ -9991,8 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,34004;31,6398;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,3203;41,2826</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1347520.35739</v>
       </c>
@@ -10012,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>75731.7293102</v>
       </c>
       <c r="AS25" t="n">
-        <v>2145761.95787304</v>
+        <v>2221493.68718324</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/46.xlsx
+++ b/opm_hero_property/heroes/46.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>46</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5646299.706931899</v>
+        <v>6622063.416195899</v>
       </c>
       <c r="U2" t="n">
-        <v>922729.3144846</v>
+        <v>1072950.1937486</v>
       </c>
       <c r="V2" t="n">
-        <v>767716.4503899601</v>
+        <v>913830.35469396</v>
       </c>
       <c r="W2" t="n">
         <v>4560</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11886045.94917</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1308940.00745192</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2958439.6759336</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1901625.05</v>
+      </c>
+      <c r="AU2" t="n">
         <v>645985.95999599</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16443866.56661791</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19296309.29255151</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>46</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>707492.4638675499</v>
+        <v>817379.5569955499</v>
       </c>
       <c r="U3" t="n">
-        <v>132407.6616502</v>
+        <v>149324.8392182</v>
       </c>
       <c r="V3" t="n">
-        <v>101569.27963988</v>
+        <v>118366.62055188</v>
       </c>
       <c r="W3" t="n">
         <v>4560</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1347520.35739</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>148726.60048304</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>574221.2285912</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>215464.7</v>
+      </c>
+      <c r="AU3" t="n">
         <v>75731.7293102</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2221493.68718324</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2544694.01577444</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>46</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7760.4204</v>
+        <v>8274.420399999999</v>
       </c>
       <c r="U4" t="n">
-        <v>1573.9296</v>
+        <v>1652.9296</v>
       </c>
       <c r="V4" t="n">
-        <v>602.7324</v>
+        <v>679.7324</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19349.59594</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23899.54594</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1501.85</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25401.39593999999</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>46</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20919.16</v>
+        <v>36024.16</v>
       </c>
       <c r="U5" t="n">
-        <v>3928.2372</v>
+        <v>6253.2372</v>
       </c>
       <c r="V5" t="n">
-        <v>1866.328</v>
+        <v>4127.328</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>49649.48268</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>61637.83267999999</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>44148.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>105786.08268</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>46</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>59256.1516</v>
+        <v>124014.1516</v>
       </c>
       <c r="U6" t="n">
-        <v>10106.3</v>
+        <v>20075.3</v>
       </c>
       <c r="V6" t="n">
-        <v>5987.059999999999</v>
+        <v>15684.06</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>119974.6166</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9406.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>168387.7166</v>
+      <c r="AT6" t="n">
+        <v>189301.85</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>357689.5666</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>46</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>66580.08014576</v>
+        <v>131338.08014576</v>
       </c>
       <c r="U7" t="n">
-        <v>11487.34212</v>
+        <v>21456.34212</v>
       </c>
       <c r="V7" t="n">
-        <v>7170.980734</v>
+        <v>16867.980734</v>
       </c>
       <c r="W7" t="n">
         <v>1080</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>119974.6166</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>189301.85</v>
+      </c>
+      <c r="AU7" t="n">
         <v>23660.66339426</v>
       </c>
-      <c r="AS7" t="n">
-        <v>192231.37999426</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>381533.22999426</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>46</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>74074.92929792</v>
+        <v>138832.92929792</v>
       </c>
       <c r="U8" t="n">
-        <v>12912.07804</v>
+        <v>22881.07804</v>
       </c>
       <c r="V8" t="n">
-        <v>8355.901468</v>
+        <v>18052.901468</v>
       </c>
       <c r="W8" t="n">
         <v>1080</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>119974.6166</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>471.4078264</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>189301.85</v>
+      </c>
+      <c r="AU8" t="n">
         <v>47328.07678852</v>
       </c>
-      <c r="AS8" t="n">
-        <v>216370.20121492</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>405672.0512149199</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>46</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>254859.7596</v>
+        <v>445348.687196</v>
       </c>
       <c r="U9" t="n">
-        <v>40561.104</v>
+        <v>69170.56504</v>
       </c>
       <c r="V9" t="n">
-        <v>29660.7746</v>
+        <v>56683.674346</v>
       </c>
       <c r="W9" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA9" t="n">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="AB9" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>549078.23115</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>717598.83115</v>
+        <v>44613.1323115</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>443565.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1260994.7134615</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>46</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>263521.06457296</v>
+        <v>511779.1320280013</v>
       </c>
       <c r="U10" t="n">
-        <v>42227.7834816</v>
+        <v>80108.95332437761</v>
       </c>
       <c r="V10" t="n">
-        <v>30922.67550094</v>
+        <v>64485.79560138493</v>
       </c>
       <c r="W10" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA10" t="n">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="AB10" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>549078.23115</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2048.979744</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44613.1323115</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>443565.75</v>
+      </c>
+      <c r="AU10" t="n">
         <v>25368.343832405</v>
       </c>
-      <c r="AS10" t="n">
-        <v>745016.1547264049</v>
+      <c r="AV10" t="n">
+        <v>253697.7976362651</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1447762.23467417</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>46</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>302876.5106951999</v>
+        <v>616017.6961804415</v>
       </c>
       <c r="U11" t="n">
-        <v>49996.161152</v>
+        <v>96867.68059091202</v>
       </c>
       <c r="V11" t="n">
-        <v>35974.2791047</v>
+        <v>76754.32807001261</v>
       </c>
       <c r="W11" t="n">
-        <v>2840</v>
+        <v>2850</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA11" t="n">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="AB11" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>549078.23115</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>23033.777184</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44613.1323115</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>443565.75</v>
+      </c>
+      <c r="AU11" t="n">
         <v>126882.519162025</v>
       </c>
-      <c r="AS11" t="n">
-        <v>867515.1274960248</v>
+      <c r="AV11" t="n">
+        <v>422111.6688527819</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1738675.078660307</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>46</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>310720.2210792</v>
+        <v>706475.9967973792</v>
       </c>
       <c r="U12" t="n">
-        <v>51828.927392</v>
+        <v>108118.170589072</v>
       </c>
       <c r="V12" t="n">
-        <v>35974.2791047</v>
+        <v>87683.44436242941</v>
       </c>
       <c r="W12" t="n">
-        <v>3140</v>
+        <v>3160</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2160</v>
+        <v>2180</v>
       </c>
       <c r="AA12" t="n">
-        <v>3780</v>
+        <v>3800</v>
       </c>
       <c r="AB12" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>549078.23115</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>44018.574624</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44613.1323115</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>443565.75</v>
+      </c>
+      <c r="AU12" t="n">
         <v>126882.519162025</v>
       </c>
-      <c r="AS12" t="n">
-        <v>888499.9249360249</v>
+      <c r="AV12" t="n">
+        <v>632670.9716984201</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1970219.178945945</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>46</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>357070.1837178</v>
+        <v>849871.3246513898</v>
       </c>
       <c r="U13" t="n">
-        <v>60912.704348</v>
+        <v>130240.970861148</v>
       </c>
       <c r="V13" t="n">
-        <v>42169.75173132</v>
+        <v>104992.5988393674</v>
       </c>
       <c r="W13" t="n">
-        <v>3440</v>
+        <v>3490</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA13" t="n">
-        <v>3780</v>
+        <v>3830</v>
       </c>
       <c r="AB13" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>549078.23115</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>65003.372064</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44613.1323115</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>443565.75</v>
+      </c>
+      <c r="AU13" t="n">
         <v>251044.71296009</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1033646.91617409</v>
+      <c r="AV13" t="n">
+        <v>883949.2684340838</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2366644.466919674</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>46</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>318563.9314632</v>
+        <v>943104.4842940416</v>
       </c>
       <c r="U14" t="n">
-        <v>53661.69363199999</v>
+        <v>137682.078384128</v>
       </c>
       <c r="V14" t="n">
-        <v>35974.2791047</v>
+        <v>108893.3671431168</v>
       </c>
       <c r="W14" t="n">
-        <v>3360</v>
+        <v>3410</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA14" t="n">
-        <v>3720</v>
+        <v>3770</v>
       </c>
       <c r="AB14" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>549078.23115</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>65003.372064</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38947.6</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44430.1323115</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>443565.75</v>
+      </c>
+      <c r="AU14" t="n">
         <v>126882.519162025</v>
       </c>
-      <c r="AS14" t="n">
-        <v>909301.722376025</v>
+      <c r="AV14" t="n">
+        <v>1175117.681529921</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2533467.686217447</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>46</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>469752.54540928</v>
+        <v>1501044.913284747</v>
       </c>
       <c r="U15" t="n">
-        <v>78430.07167472001</v>
+        <v>228659.7123318704</v>
       </c>
       <c r="V15" t="n">
-        <v>58911.2427126</v>
+        <v>184967.7930827818</v>
       </c>
       <c r="W15" t="n">
-        <v>3520</v>
+        <v>3620</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2160</v>
+        <v>2260</v>
       </c>
       <c r="AA15" t="n">
-        <v>3840</v>
+        <v>3940</v>
       </c>
       <c r="AB15" t="n">
-        <v>1080</v>
+        <v>1480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>848403.9373699999</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>96649.69128472</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111712</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128663.5787474</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>811578.9</v>
+      </c>
+      <c r="AU15" t="n">
         <v>159390.906907578</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1363645.685562298</v>
+      <c r="AV15" t="n">
+        <v>1965371.57429095</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4157547.738600648</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>46</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>477985.36555896</v>
+        <v>1537873.245674223</v>
       </c>
       <c r="U16" t="n">
-        <v>79980.06236703999</v>
+        <v>234544.1328754215</v>
       </c>
       <c r="V16" t="n">
-        <v>60239.4766647</v>
+        <v>189720.1861739373</v>
       </c>
       <c r="W16" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA16" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="AB16" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>848403.9373699999</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>96649.69128472</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111895</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128846.5787474</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>811578.9</v>
+      </c>
+      <c r="AU16" t="n">
         <v>185956.008058841</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1390393.786713561</v>
+      <c r="AV16" t="n">
+        <v>2044763.567553809</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4263687.83301477</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>46</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1132691.73495305</v>
+        <v>2793122.53317175</v>
       </c>
       <c r="U17" t="n">
-        <v>186618.77834048</v>
+        <v>421217.5467224985</v>
       </c>
       <c r="V17" t="n">
-        <v>161956.92924</v>
+        <v>368469.92100928</v>
       </c>
       <c r="W17" t="n">
-        <v>3920</v>
+        <v>4120</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA17" t="n">
-        <v>4140</v>
+        <v>4340</v>
       </c>
       <c r="AB17" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1951841.12002</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>212381.42745672</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685692</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>763732.6448008</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1296714.25</v>
+      </c>
+      <c r="AU17" t="n">
         <v>246633.601155642</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3366514.648632362</v>
+      <c r="AV17" t="n">
+        <v>3094257.107927188</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7835526.651360352</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>46</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5646299.706931899</v>
+        <v>9870330.163781593</v>
       </c>
       <c r="U18" t="n">
-        <v>922729.3144846</v>
+        <v>1468101.916610935</v>
       </c>
       <c r="V18" t="n">
-        <v>767716.4503899601</v>
+        <v>1244824.080547847</v>
       </c>
       <c r="W18" t="n">
-        <v>4560</v>
+        <v>4760</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA18" t="n">
-        <v>4620</v>
+        <v>4820</v>
       </c>
       <c r="AB18" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11886045.94917</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1308940.00745192</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2958439.6759336</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1901625.05</v>
+      </c>
+      <c r="AU18" t="n">
         <v>645985.95999599</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16443866.56661791</v>
+      <c r="AV18" t="n">
+        <v>7880427.558995653</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27176736.85154717</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>46</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9197444.008056302</v>
+        <v>16889327.4017913</v>
       </c>
       <c r="U19" t="n">
-        <v>1499347.679811</v>
+        <v>2615402.963656544</v>
       </c>
       <c r="V19" t="n">
-        <v>1242200.80818996</v>
+        <v>2210445.187997072</v>
       </c>
       <c r="W19" t="n">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA19" t="n">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="AB19" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>19284376.22818</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2127466.70766848</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470670.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6363203.284227001</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1901625.05</v>
+      </c>
+      <c r="AU19" t="n">
         <v>645985.95999599</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26704341.64584447</v>
+      <c r="AV19" t="n">
+        <v>16168312.30193315</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47666811.68200462</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>46</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>232670.68680829</v>
+        <v>239962.68680829</v>
       </c>
       <c r="U20" t="n">
-        <v>40344.17309848</v>
+        <v>41466.17309848</v>
       </c>
       <c r="V20" t="n">
-        <v>26706.6727544</v>
+        <v>27820.6727544</v>
       </c>
       <c r="W20" t="n">
         <v>1080</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>573564.53134</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2223.67430624</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32982.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>21439.3</v>
+      </c>
+      <c r="AU20" t="n">
         <v>13450.443879362</v>
       </c>
-      <c r="AS20" t="n">
-        <v>669764.3495256021</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>691203.649525602</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>46</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>300894.1626246001</v>
+        <v>315923.7134446001</v>
       </c>
       <c r="U21" t="n">
-        <v>50894.76224156001</v>
+        <v>53233.33122956</v>
       </c>
       <c r="V21" t="n">
-        <v>35634.85789424001</v>
+        <v>37873.25656224</v>
       </c>
       <c r="W21" t="n">
         <v>1710</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>683791.9178200001</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>28788.27532152</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65965.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>72795.2691782</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>37206.8</v>
+      </c>
+      <c r="AU21" t="n">
         <v>18032.811841724</v>
       </c>
-      <c r="AS21" t="n">
-        <v>864875.7049832441</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>908912.1741614441</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>46</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>418744.17980068</v>
+        <v>549705.9161013672</v>
       </c>
       <c r="U22" t="n">
-        <v>69278.94011868001</v>
+        <v>87893.62859442209</v>
       </c>
       <c r="V22" t="n">
-        <v>51575.88737202001</v>
+        <v>67247.90424487769</v>
       </c>
       <c r="W22" t="n">
-        <v>3140</v>
+        <v>3190</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA22" t="n">
-        <v>3780</v>
+        <v>3830</v>
       </c>
       <c r="AB22" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>872087.5872599999</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>67294.94872806</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95470.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>104183.0258726</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>50254</v>
+      </c>
+      <c r="AU22" t="n">
         <v>34133.633020627</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1206638.219008687</v>
+      <c r="AV22" t="n">
+        <v>291150.5579296392</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1556755.402810926</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>46</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>479569.7543846</v>
+        <v>703671.4516124435</v>
       </c>
       <c r="U23" t="n">
-        <v>81715.10968076</v>
+        <v>117227.9239225429</v>
       </c>
       <c r="V23" t="n">
-        <v>59810.42544345</v>
+        <v>87140.77369639336</v>
       </c>
       <c r="W23" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA23" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="AB23" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>953628.4510850001</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>107758.99126336</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>150324</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>169380.0690217</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>91953.95000000001</v>
+      </c>
+      <c r="AU23" t="n">
         <v>45138.9151333215</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1401482.957481681</v>
+      <c r="AV23" t="n">
+        <v>517679.59892887</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2030172.575432252</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>46</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>554493.77098</v>
+        <v>887451.30001828</v>
       </c>
       <c r="U24" t="n">
-        <v>98303.34446528001</v>
+        <v>151479.079419481</v>
       </c>
       <c r="V24" t="n">
-        <v>73578.93388067</v>
+        <v>115588.6304806606</v>
       </c>
       <c r="W24" t="n">
-        <v>3920</v>
+        <v>4120</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA24" t="n">
-        <v>4140</v>
+        <v>4340</v>
       </c>
       <c r="AB24" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1081952.871165</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>121027.44581264</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>255711.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>298956.3148466</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>146922</v>
+      </c>
+      <c r="AU24" t="n">
         <v>54633.2006266445</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1670766.717604285</v>
+      <c r="AV24" t="n">
+        <v>753658.7408256128</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2614592.573276497</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>46</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>707492.4638675499</v>
+        <v>1519908.012809378</v>
       </c>
       <c r="U25" t="n">
-        <v>132407.6616502</v>
+        <v>257937.8540977902</v>
       </c>
       <c r="V25" t="n">
-        <v>101569.27963988</v>
+        <v>203461.0094563629</v>
       </c>
       <c r="W25" t="n">
-        <v>4560</v>
+        <v>4760</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA25" t="n">
-        <v>4620</v>
+        <v>4820</v>
       </c>
       <c r="AB25" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1347520.35739</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>148726.60048304</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>574221.2285912</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>215464.7</v>
+      </c>
+      <c r="AU25" t="n">
         <v>75731.7293102</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2221493.68718324</v>
+      <c r="AV25" t="n">
+        <v>1943650.994683777</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4488345.010458217</v>
       </c>
     </row>
   </sheetData>
